--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A401"/>
+  <dimension ref="A1:A397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,2581 +660,2553 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Boyaca Chico FC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Al Fehaiheel</t>
+          <t>Caravel</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Boyaca Chico FC</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Caravel</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Domagnano</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Torreense</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Birmingham</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Municipal Santiago</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Oud-Heverlee Leuven</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Municipal Santiago</t>
+          <t>Empoli</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oud-Heverlee Leuven</t>
+          <t>Coleraine</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Hamilton Academical</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Coleraine</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hamilton Academical</t>
+          <t>Borussia Monchengladbach</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Ascoli</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>FC Thun</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Eimsbütteler TV</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FC Thun</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Eimsbütteler TV</t>
+          <t>ACS Sepsi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ACS Sepsi</t>
+          <t>Heracles</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>SC Telstar</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>FC Oss</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>De Graafschap</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>FC Hertha 03 Zehlendorf</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Yverdon-Sport FC</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FC Hertha 03 Zehlendorf</t>
+          <t>Hannover 96 II</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Yverdon-Sport FC</t>
+          <t>Augsburg II</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hannover 96 II</t>
+          <t>Neuchâtel Xamax FC</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Augsburg II</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax FC</t>
+          <t>FC Bastia Borgo</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>FC Bourg Peronnas</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FC Bastia Borgo</t>
+          <t>Cholet</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FC Bourg Peronnas</t>
+          <t>Orleans US</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>USL Dunkerque</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Orleans US</t>
+          <t>Versailles 78</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>USL Dunkerque</t>
+          <t>Concarneau</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Versailles 78</t>
+          <t>SSVg Velbert</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>SC Victoria Hamburg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SSVg Velbert</t>
+          <t>Harksheide</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SC Victoria Hamburg</t>
+          <t>KFC Uerdingen 05</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Harksheide</t>
+          <t>Waidhofen-Thaya</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KFC Uerdingen 05</t>
+          <t>ASV Schrems</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Waidhofen-Thaya</t>
+          <t>Hertha Berlin II</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ASV Schrems</t>
+          <t>FC Carl Zeiss Jena</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hertha Berlin II</t>
+          <t>Bayern München II</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FC Carl Zeiss Jena</t>
+          <t>Vendee Les Herbiers</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bayern München II</t>
+          <t>Dortmund II</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Vendee Les Herbiers</t>
+          <t>FC Schalke 04 Am.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>TSG Neustrelitz</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FC Schalke 04 Am.</t>
+          <t>FC Süderelbe</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TSG Neustrelitz</t>
+          <t>SC Eltersdorf</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FC Süderelbe</t>
+          <t>ASV Cham</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SC Eltersdorf</t>
+          <t>TSV Kornburg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ASV Cham</t>
+          <t>Sonnenhof Großaspach</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TSV Kornburg</t>
+          <t>Mondsee</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sonnenhof Großaspach</t>
+          <t>ATSV Wolfsberg</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mondsee</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ATSV Wolfsberg</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>SPG Weißkirchen / Allhaming</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>FC Dornbirn 1913</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SPG Weißkirchen / Allhaming</t>
+          <t>FC Liefering</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FC Dornbirn 1913</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>MKE Ankaragucu</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SV Lafnitz</t>
+          <t>Nea Salamis Famagusta</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MKE Ankaragucu</t>
+          <t>AC Omonia Nicosia</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Nea Salamis Famagusta</t>
+          <t>Sete 34</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AC Omonia Nicosia</t>
+          <t>Boulogne</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sete 34</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>GKS Tychy 71</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Tallinna JK Legion</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GKS Tychy 71</t>
+          <t>SC Mannsworth</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Tallinna JK Legion</t>
+          <t>FC Spartak Trnava</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SC Mannsworth</t>
+          <t>Nizhniy Novgorod</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FC Spartak Trnava</t>
+          <t>Sigma Olomouc II</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nizhniy Novgorod</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sigma Olomouc II</t>
+          <t>Sidama Bunna</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Afrique Football Elite</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sidama Bunna</t>
+          <t>Kiyovu Sports Association</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Afrique Football Elite</t>
+          <t>Al Arabi SC</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kiyovu Sports Association</t>
+          <t>Pirin Blagoevgrad</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Al Arabi SC</t>
+          <t>1 FK Pribram</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Pirin Blagoevgrad</t>
+          <t>King Faisal</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1 FK Pribram</t>
+          <t>Legon Cities FC</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>King Faisal</t>
+          <t>MFC Kremin Kremenchuk</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Legon Cities FC</t>
+          <t>FK Radnik Bijeljina</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MFC Kremin Kremenchuk</t>
+          <t>Etehad Al Reef Club</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FK Radnik Bijeljina</t>
+          <t>Al Ittihad Bahrain</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Etehad Al Reef Club</t>
+          <t>Al Bourj</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Al Ittihad Bahrain</t>
+          <t>Bron Radom</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Al Bourj</t>
+          <t>OFTA of Kribi</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>MSP Batna</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>OFTA of Kribi</t>
+          <t>JS Djidjel</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MSP Batna</t>
+          <t>JSM Skikda</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>JS Djidjel</t>
+          <t>USM Bel Abbès</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>JSM Skikda</t>
+          <t>PAOK II</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>USM Bel Abbès</t>
+          <t>Maccabi Kabilio Jaffa</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PAOK II</t>
+          <t>Agudat Sport Ashdod</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>Hapoel Afula</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Agudat Sport Ashdod</t>
+          <t>Bnei Yehuda Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hapoel Afula</t>
+          <t>Geita Gold</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Bnei Yehuda Tel Aviv</t>
+          <t>Kfar Kasem</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Geita Gold</t>
+          <t>Niki Volou</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Kfar Kasem</t>
+          <t>NK Kustosija</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Niki Volou</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NK Kustosija</t>
+          <t>SC Villa</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Blacks Power FC</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SC Villa</t>
+          <t>NK Radnik Sesvete</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Blacks Power FC</t>
+          <t>NK Opatija</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NK Radnik Sesvete</t>
+          <t>FC Litex Lovech</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NK Opatija</t>
+          <t>PFC Ludogorets Razgrad II</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FC Litex Lovech</t>
+          <t>Sozopol</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PFC Ludogorets Razgrad II</t>
+          <t>FK Yantra Gabrovo</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sozopol</t>
+          <t>Minerul Costesti</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FK Yantra Gabrovo</t>
+          <t>Înainte Modelu</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Minerul Costesti</t>
+          <t>Unirea Bascov</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Înainte Modelu</t>
+          <t>ACS Targu Mures 1898</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Unirea Bascov</t>
+          <t>FCSB II</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ACS Targu Mures 1898</t>
+          <t>CS Gilortul Targu Carbunesti</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FCSB II</t>
+          <t>ACS Gloria Bistrita</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CS Gilortul Targu Carbunesti</t>
+          <t>CS Phoenix Buzias</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ACS Gloria Bistrita</t>
+          <t>Avantul Periam</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CS Phoenix Buzias</t>
+          <t>Epitsentr Dunayivtsi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Avantul Periam</t>
+          <t>SR Municipal Brasov</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epitsentr Dunayivtsi</t>
+          <t>RKS Garbarnia Krakow</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SR Municipal Brasov</t>
+          <t>SK Slovan Bratislava futbal II</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RKS Garbarnia Krakow</t>
+          <t>Sokol Kleczew</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SK Slovan Bratislava futbal II</t>
+          <t>Hapoel Kaukab</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sokol Kleczew</t>
+          <t>Polonia Nysa</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hapoel Kaukab</t>
+          <t>Wiazownica</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Polonia Nysa</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Pucioasa</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Hapoel Bnei-Zalfa</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pucioasa</t>
+          <t>Albirex Niigata Singapore FC</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hapoel Bnei-Zalfa</t>
+          <t>Tampines Rovers</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Albirex Niigata Singapore FC</t>
+          <t>Hapoel Marmorek</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Tampines Rovers</t>
+          <t>Ihud Bnei Shefaram</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek</t>
+          <t>Hapoel Ironi Baqa Al Gharbiyye</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ihud Bnei Shefaram</t>
+          <t>Samut Prakan City</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Hapoel Ironi Baqa Al Gharbiyye</t>
+          <t>FC Metalurh Zaporizhya</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Samut Prakan City</t>
+          <t>OKS Swit Skolwin</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FC Metalurh Zaporizhya</t>
+          <t>Blonianka Blonie</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>OKS Swit Skolwin</t>
+          <t>Hapoel Sandala Gilboa</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Blonianka Blonie</t>
+          <t>Ironi Beit Dagan</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Hapoel Sandala Gilboa</t>
+          <t>SC Maccabi Ashdod</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ironi Beit Dagan</t>
+          <t>Kaaro Karungi</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SC Maccabi Ashdod</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Kaaro Karungi</t>
+          <t>Maccabi Nujeidat Ahmed</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Sderot FC</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Maccabi Nujeidat Ahmed</t>
+          <t>Hapoel Bikat Hayarden</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sderot FC</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Hapoel Bikat Hayarden</t>
+          <t>FC Sioni Bolnisi</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>MS Shikun Hamizrach</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>FC Sioni Bolnisi</t>
+          <t>Hapoel Bnei Lod</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MS Shikun Hamizrach</t>
+          <t>Agudat Sport Nordia</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Hapoel Bnei Lod</t>
+          <t>Hapoel Qalansawe</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Agudat Sport Nordia</t>
+          <t>Maccabi Ironi Kiryat Ata</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hapoel Qalansawe</t>
+          <t>Hapoel Ironi Gedera</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Kiryat Ata</t>
+          <t>Shimshon Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hapoel Ironi Gedera</t>
+          <t>Ihud Bnei Baka</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Shimshon Tel Aviv</t>
+          <t>Paro FC</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ihud Bnei Baka</t>
+          <t>Kunshan FC</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Paro FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Kunshan FC</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Cuiabá</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cádiz CF</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Aston Villa</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Cádiz CF</t>
+          <t>AC Monza</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Moreirense</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>PAOK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>SV Darmstadt 98</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Bétis</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SV Darmstadt 98</t>
+          <t>SC Cambuur</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Bétis</t>
+          <t>SD Cirkulane</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SC Cambuur</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SD Cirkulane</t>
+          <t>Antuérpia</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>v.v OJC Rosmalen</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Antuérpia</t>
+          <t>FCSB</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>v.v OJC Rosmalen</t>
+          <t>TuS BW Konigsdorf</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>TuS BW Konigsdorf</t>
+          <t>SC Vasas Budapest</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SC Vasas Budapest</t>
+          <t>Varbergs BoIS FC</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Varbergs BoIS FC</t>
+          <t>Örgryte IS</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>1. FC Köln II</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Örgryte IS</t>
+          <t>Diefflen</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1. FC Köln II</t>
+          <t>Sivas 4 Eylul</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Diefflen</t>
+          <t>Maccabi Shaarayim</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Sivas 4 Eylul</t>
+          <t>Estrela Vermelha</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Maccabi Shaarayim</t>
+          <t>Juventus FC</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Estrela Vermelha</t>
+          <t>PAS Giannina</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Juventus FC</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PAS Giannina</t>
+          <t>SV Racing Club Aruba</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Anorthosis Famagusta</t>
+          <t>Universidad de Concepcion</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>SS Cosmos</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SV Racing Club Aruba</t>
+          <t>Vilafranquense</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Universidad de Concepcion</t>
+          <t>Nice</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Sunderland</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SS Cosmos</t>
+          <t>CD Provincial Ranco</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Vilafranquense</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>US Cremonese</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Glentoran FC</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CD Provincial Ranco</t>
+          <t>Ayr United</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>SKN St. Polten</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Glentoran FC</t>
+          <t>Frosinone</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Ayr United</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SKN St. Polten</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Hamburger SV III</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>FC Twente</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>Petrolul Ploiesti</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Willem II</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Hamburger SV III</t>
+          <t>NAC Breda</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Den Haag</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Petrolul Ploiesti</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t xml:space="preserve">Jong PSV Eindhoven </t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>MSV 1919 Neuruppin</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jong PSV Eindhoven </t>
+          <t>BW Lohne</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>SV Viktoria Aschaffenburg</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>MSV 1919 Neuruppin</t>
+          <t>FC Stade LS Ouchy</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Le Puy Foot</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BW Lohne</t>
+          <t>Villefranche</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SV Viktoria Aschaffenburg</t>
+          <t>Martigues</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FC Stade LS Ouchy</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Le Puy Foot</t>
+          <t>Avranches</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>Red Star Paris</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>FC Monheim</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Uhlenhorster SC Paloma</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>TuS Osdorf</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Red Star Paris</t>
+          <t>FC Kray</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FC Monheim</t>
+          <t>Ortmann</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Uhlenhorster SC Paloma</t>
+          <t>SV Langenrohr</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>TuS Osdorf</t>
+          <t>SV Lichtenberg 47</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>FC Kray</t>
+          <t>Berliner AK 07</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Ortmann</t>
+          <t>SpVgg Ansbach</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SV Langenrohr</t>
+          <t>Bourges 18</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SV Lichtenberg 47</t>
+          <t>FC Erzgebirge Aue</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Berliner AK 07</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SpVgg Ansbach</t>
+          <t>FSV Optik Rathenow</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Bourges 18</t>
+          <t>FC Türkiye Wilhelmsburg</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>FC Erzgebirge Aue</t>
+          <t>TSV Grossbardorf</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>SpVgg SV Weiden</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FSV Optik Rathenow</t>
+          <t>1. SC Feucht</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>FC Türkiye Wilhelmsburg</t>
+          <t>FC Holzhausen</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>TSV Grossbardorf</t>
+          <t>ASKÖ Oedt</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SpVgg SV Weiden</t>
+          <t>KAC 1909</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1. SC Feucht</t>
+          <t>Hannover 96</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>FC Holzhausen</t>
+          <t xml:space="preserve">1. FC Kaiserslautern </t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ASKÖ Oedt</t>
+          <t>SV Wallern</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>KAC 1909</t>
+          <t>Steyr</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Hannover 96</t>
+          <t>FC Admira Wacker Modling</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. FC Kaiserslautern </t>
+          <t>SV Horn</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SV Wallern</t>
+          <t>Sturm Graz Amateure</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Steyr</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>FC Admira Wacker Modling</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SV Horn</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Sturm Graz Amateure</t>
+          <t>Jura Sud Foot</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Épinal</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>Chojniczanka Chojnice</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Jura Sud Foot</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Épinal</t>
+          <t>Stammersdorf</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>MFK Skalica</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Chojniczanka Chojnice</t>
+          <t>FC Akhmat Grozny</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>FC Vysocina Jihlava</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Stammersdorf</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MFK Skalica</t>
+          <t>Awassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>FC Akhmat Grozny</t>
+          <t>Korofina</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>FC Vysocina Jihlava</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucuresti</t>
+          <t>Al Qadsia</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Awassa Kenema</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Korofina</t>
+          <t>MFK Chrudim</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Kotuku Royals</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Al Qadsia</t>
+          <t>Great Olympics</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>SC Poltava</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MFK Chrudim</t>
+          <t>FK Sutjeska</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Kotuku Royals</t>
+          <t>Al-Najma Manama</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Great Olympics</t>
+          <t>Al Riffa</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SC Poltava</t>
+          <t>Al Nejmeh</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>FK Sutjeska</t>
+          <t>Pelikan Lowicz</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Al-Najma Manama</t>
+          <t>Foncha Street Bamenda</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Al Riffa</t>
+          <t>CA Batna</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Al Nejmeh</t>
+          <t>Aïn M'lila</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Pelikan Lowicz</t>
+          <t>US Chaouia</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Foncha Street Bamenda</t>
+          <t>CR Temouchent</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CA Batna</t>
+          <t>Athlitiki Enosi Larissa F.C.</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Aïn M'lila</t>
+          <t>Maccabi Ahi Nazareth FC</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>US Chaouia</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>CR Temouchent</t>
+          <t>Hapoel Ramat Gan</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa F.C.</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Maccabi Ahi Nazareth FC</t>
+          <t>KMC FC</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Hapoel Irony Nir Ramat Hasharon</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Hapoel Ramat Gan</t>
+          <t>Veria</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>KMC FC</t>
+          <t>EEPCO</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Hapoel Irony Nir Ramat Hasharon</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Veria</t>
+          <t>Vipers</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>NK Hrvace</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>EEPCO</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>FC Etar Veliko Tarnovo</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>PFC Belasitsa Petrich</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>NK Hrvace</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>FK Minior Pernik</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>FC Etar Veliko Tarnovo</t>
+          <t>Vedita Colonesti</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>PFC Belasitsa Petrich</t>
+          <t>CS Afumati</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Tunari</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>FK Minior Pernik</t>
+          <t>Sanatatea Cluj</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Vedita Colonesti</t>
+          <t>Popesti-Leordeni</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CS Afumati</t>
+          <t>CSO Retezatul Hateg</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Tunari</t>
+          <t>CFR Cluj II</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Sanatatea Cluj</t>
+          <t>Ineu</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Popesti-Leordeni</t>
+          <t>CSC Ghiroda si Giarmata VII</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>CSO Retezatul Hateg</t>
+          <t>FC Karpaty Lviv</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CFR Cluj II</t>
+          <t>Blejoi</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Ineu</t>
+          <t>KKS 1925 Kalisz</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>CSC Ghiroda si Giarmata VII</t>
+          <t>MSK Zilina II</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>FC Karpaty Lviv</t>
+          <t>MKS Pogon Szczecin II</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Blejoi</t>
+          <t>Hapoel Bueine</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>KKS 1925 Kalisz</t>
+          <t>Odra Wodzislaw Slaski</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MSK Zilina II</t>
+          <t>Podlasie Biala Podlaska</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>MKS Pogon Szczecin II</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Hapoel Bueine</t>
+          <t>Real Bradu</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Odra Wodzislaw Slaski</t>
+          <t>MS Tira</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Podlasie Biala Podlaska</t>
+          <t>Hougang United FC</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Balestier Khalsa</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Real Bradu</t>
+          <t>Beitar Tel Aviv Bat Yam</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MS Tira</t>
+          <t>Ironi Nesher</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Hougang United FC</t>
+          <t>MS Tzeirey Kfar Kana</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>Raj Pracha Nonthaburi</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Beitar Tel Aviv Bat Yam</t>
+          <t>Skoruk Tomakovka</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Ironi Nesher</t>
+          <t>Unia Janikowo</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>MS Tzeirey Kfar Kana</t>
+          <t>Sokol Ostroda</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Raj Pracha Nonthaburi</t>
+          <t>Beitar Haifa Yaacov</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Skoruk Tomakovka</t>
+          <t>Tzeirey Tira</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Unia Janikowo</t>
+          <t>FC Holon Yirmiyahu</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Sokol Ostroda</t>
+          <t>Northern Gateway SC</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Beitar Haifa Yaacov</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Tzeirey Tira</t>
+          <t>Hapoel Raanana</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>FC Holon Yirmiyahu</t>
+          <t>Maccabi Ironi Netivot</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Northern Gateway SC</t>
+          <t>Bnei Eilat</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>FC Gagra</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Hapoel Raanana</t>
+          <t>FC Saburtalo Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Netivot</t>
+          <t>MS Jerusalem</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Bnei Eilat</t>
+          <t>SC Hapoel Segev Shalom</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>FC Gagra</t>
+          <t>Maccabi Ironi Sderot</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>FC Saburtalo Tbilisi</t>
+          <t>MS Tzeirey Taibe</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>MS Jerusalem</t>
+          <t>Hapoel Migdal Haemek</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SC Hapoel Segev Shalom</t>
+          <t>Beitar Ironi Kiryat Gat</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Sderot</t>
+          <t>Shimshon Kfar Qasem</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>MS Tzeirey Taibe</t>
+          <t>Hapoel Bnei Arrara Ara</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Hapoel Migdal Haemek</t>
+          <t>FC Takin</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Beitar Ironi Kiryat Gat</t>
+          <t>Zibo Cuju FC</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
-        <is>
-          <t>Shimshon Kfar Qasem</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Hapoel Bnei Arrara Ara</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>FC Takin</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>Zibo Cuju FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
         <is>
           <t>Sichuan FC</t>
         </is>

--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A397"/>
+  <dimension ref="A1:A399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,980 +660,980 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Boyaca Chico FC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Caravel</t>
+          <t>Boyaca Chico FC</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Caravel</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Domagnano</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Domagnano</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Torreense</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Municipal Santiago</t>
+          <t>Birmingham</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oud-Heverlee Leuven</t>
+          <t>Municipal Santiago</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Oud-Heverlee Leuven</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Coleraine</t>
+          <t>Empoli</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hamilton Academical</t>
+          <t>Coleraine</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Hamilton Academical</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Borussia Monchengladbach</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Ascoli</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FC Thun</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Eimsbütteler TV</t>
+          <t>FC Thun</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Eimsbütteler TV</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ACS Sepsi</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>ACS Sepsi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Heracles</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>SC Telstar</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>FC Oss</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>De Graafschap</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FC Hertha 03 Zehlendorf</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Yverdon-Sport FC</t>
+          <t>FC Hertha 03 Zehlendorf</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hannover 96 II</t>
+          <t>Yverdon-Sport FC</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Augsburg II</t>
+          <t>Hannover 96 II</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax FC</t>
+          <t>Augsburg II</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Neuchâtel Xamax FC</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FC Bastia Borgo</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FC Bourg Peronnas</t>
+          <t>FC Bastia Borgo</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>FC Bourg Peronnas</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Orleans US</t>
+          <t>Cholet</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>USL Dunkerque</t>
+          <t>Orleans US</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Versailles 78</t>
+          <t>USL Dunkerque</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Versailles 78</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SSVg Velbert</t>
+          <t>Concarneau</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SC Victoria Hamburg</t>
+          <t>SSVg Velbert</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Harksheide</t>
+          <t>SC Victoria Hamburg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>KFC Uerdingen 05</t>
+          <t>Harksheide</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Waidhofen-Thaya</t>
+          <t>KFC Uerdingen 05</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ASV Schrems</t>
+          <t>Waidhofen-Thaya</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hertha Berlin II</t>
+          <t>ASV Schrems</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FC Carl Zeiss Jena</t>
+          <t>Hertha Berlin II</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bayern München II</t>
+          <t>FC Carl Zeiss Jena</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Vendee Les Herbiers</t>
+          <t>Bayern München II</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Vendee Les Herbiers</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FC Schalke 04 Am.</t>
+          <t>Dortmund II</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TSG Neustrelitz</t>
+          <t>FC Schalke 04 Am.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FC Süderelbe</t>
+          <t>TSG Neustrelitz</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SC Eltersdorf</t>
+          <t>FC Süderelbe</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ASV Cham</t>
+          <t>SC Eltersdorf</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TSV Kornburg</t>
+          <t>ASV Cham</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sonnenhof Großaspach</t>
+          <t>TSV Kornburg</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mondsee</t>
+          <t>Sonnenhof Großaspach</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ATSV Wolfsberg</t>
+          <t>Mondsee</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>ATSV Wolfsberg</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SPG Weißkirchen / Allhaming</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FC Dornbirn 1913</t>
+          <t>SPG Weißkirchen / Allhaming</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>FC Dornbirn 1913</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>FC Liefering</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SV Lafnitz</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MKE Ankaragucu</t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Nea Salamis Famagusta</t>
+          <t>MKE Ankaragucu</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AC Omonia Nicosia</t>
+          <t>Nea Salamis Famagusta</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sete 34</t>
+          <t>AC Omonia Nicosia</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Sete 34</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Boulogne</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GKS Tychy 71</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tallinna JK Legion</t>
+          <t>GKS Tychy 71</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SC Mannsworth</t>
+          <t>Tallinna JK Legion</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FC Spartak Trnava</t>
+          <t>SC Mannsworth</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Nizhniy Novgorod</t>
+          <t>FC Spartak Trnava</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sigma Olomouc II</t>
+          <t>Nizhniy Novgorod</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Sigma Olomouc II</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sidama Bunna</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Afrique Football Elite</t>
+          <t>Sidama Bunna</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kiyovu Sports Association</t>
+          <t>Afrique Football Elite</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Al Arabi SC</t>
+          <t>Kiyovu Sports Association</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pirin Blagoevgrad</t>
+          <t>Al Arabi SC</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1 FK Pribram</t>
+          <t>Pirin Blagoevgrad</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>King Faisal</t>
+          <t>1 FK Pribram</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Legon Cities FC</t>
+          <t>King Faisal</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MFC Kremin Kremenchuk</t>
+          <t>Legon Cities FC</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FK Radnik Bijeljina</t>
+          <t>MFC Kremin Kremenchuk</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Etehad Al Reef Club</t>
+          <t>FK Radnik Bijeljina</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Al Ittihad Bahrain</t>
+          <t>Etehad Al Reef Club</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Al Bourj</t>
+          <t>Al Ittihad Bahrain</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>Al Bourj</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>OFTA of Kribi</t>
+          <t>Bron Radom</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MSP Batna</t>
+          <t>OFTA of Kribi</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>JS Djidjel</t>
+          <t>MSP Batna</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>JSM Skikda</t>
+          <t>JS Djidjel</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>USM Bel Abbès</t>
+          <t>JSM Skikda</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PAOK II</t>
+          <t>USM Bel Abbès</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>PAOK II</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Agudat Sport Ashdod</t>
+          <t>Maccabi Kabilio Jaffa</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hapoel Afula</t>
+          <t>Agudat Sport Ashdod</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Bnei Yehuda Tel Aviv</t>
+          <t>Hapoel Afula</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Geita Gold</t>
+          <t>Bnei Yehuda Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Kfar Kasem</t>
+          <t>Geita Gold</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Niki Volou</t>
+          <t>Kfar Kasem</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>NK Kustosija</t>
+          <t>Niki Volou</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>NK Kustosija</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SC Villa</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Blacks Power FC</t>
+          <t>SC Villa</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NK Radnik Sesvete</t>
+          <t>Blacks Power FC</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>NK Opatija</t>
+          <t>NK Radnik Sesvete</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FC Litex Lovech</t>
+          <t>NK Opatija</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PFC Ludogorets Razgrad II</t>
+          <t>FC Litex Lovech</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Sozopol</t>
+          <t>PFC Ludogorets Razgrad II</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FK Yantra Gabrovo</t>
+          <t>Sozopol</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Minerul Costesti</t>
+          <t>FK Yantra Gabrovo</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Înainte Modelu</t>
+          <t>Minerul Costesti</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Unirea Bascov</t>
+          <t>Înainte Modelu</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ACS Targu Mures 1898</t>
+          <t>Unirea Bascov</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FCSB II</t>
+          <t>ACS Targu Mures 1898</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CS Gilortul Targu Carbunesti</t>
+          <t>FCSB II</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ACS Gloria Bistrita</t>
+          <t>CS Gilortul Targu Carbunesti</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CS Phoenix Buzias</t>
+          <t>ACS Gloria Bistrita</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Avantul Periam</t>
+          <t>CS Phoenix Buzias</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epitsentr Dunayivtsi</t>
+          <t>Avantul Periam</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SR Municipal Brasov</t>
+          <t>Epitsentr Dunayivtsi</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RKS Garbarnia Krakow</t>
+          <t>SR Municipal Brasov</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SK Slovan Bratislava futbal II</t>
+          <t>RKS Garbarnia Krakow</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sokol Kleczew</t>
+          <t>SK Slovan Bratislava futbal II</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hapoel Kaukab</t>
+          <t>Sokol Kleczew</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Polonia Nysa</t>
+          <t>Hapoel Kaukab</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Wiazownica</t>
+          <t>Polonia Nysa</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Wiazownica</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Pucioasa</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hapoel Bnei-Zalfa</t>
+          <t>Pucioasa</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Albirex Niigata Singapore FC</t>
+          <t>Hapoel Bnei-Zalfa</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Tampines Rovers</t>
+          <t>Albirex Niigata Singapore FC</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek</t>
+          <t>Tampines Rovers</t>
         </is>
       </c>
     </row>
@@ -1682,1531 +1682,1545 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Hapoel Sandala Gilboa</t>
+          <t>Hapoel Marmorek</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ironi Beit Dagan</t>
+          <t>Hapoel Sandala Gilboa</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SC Maccabi Ashdod</t>
+          <t>Ironi Beit Dagan</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kaaro Karungi</t>
+          <t>SC Maccabi Ashdod</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Kaaro Karungi</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Maccabi Nujeidat Ahmed</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Sderot FC</t>
+          <t>Maccabi Nujeidat Ahmed</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Hapoel Bikat Hayarden</t>
+          <t>Sderot FC</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>Hapoel Bikat Hayarden</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FC Sioni Bolnisi</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MS Shikun Hamizrach</t>
+          <t>FC Sioni Bolnisi</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Hapoel Bnei Lod</t>
+          <t>MS Shikun Hamizrach</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Agudat Sport Nordia</t>
+          <t>Hapoel Bnei Lod</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Hapoel Qalansawe</t>
+          <t>Agudat Sport Nordia</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Kiryat Ata</t>
+          <t>Hapoel Qalansawe</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hapoel Ironi Gedera</t>
+          <t>Maccabi Ironi Kiryat Ata</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Shimshon Tel Aviv</t>
+          <t>Hapoel Ironi Gedera</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Ihud Bnei Baka</t>
+          <t>Shimshon Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Paro FC</t>
+          <t>Ihud Bnei Baka</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Kunshan FC</t>
+          <t>Paro FC</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Kunshan FC</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Cádiz CF</t>
+          <t>Cuiabá</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Cádiz CF</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Aston Villa</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>AC Monza</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Moreirense</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SV Darmstadt 98</t>
+          <t>PAOK</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Bétis</t>
+          <t>SV Darmstadt 98</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SC Cambuur</t>
+          <t>Bétis</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SD Cirkulane</t>
+          <t>SC Cambuur</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>SD Cirkulane</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Antuérpia</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>v.v OJC Rosmalen</t>
+          <t>Antuérpia</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>v.v OJC Rosmalen</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>TuS BW Konigsdorf</t>
+          <t>FCSB</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>TuS BW Konigsdorf</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SC Vasas Budapest</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>SC Vasas Budapest</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Varbergs BoIS FC</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Östersunds FK</t>
+          <t>Varbergs BoIS FC</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Örgryte IS</t>
+          <t>Östersunds FK</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1. FC Köln II</t>
+          <t>Örgryte IS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Diefflen</t>
+          <t>1. FC Köln II</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Sivas 4 Eylul</t>
+          <t>Diefflen</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Maccabi Shaarayim</t>
+          <t>Sivas 4 Eylul</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Estrela Vermelha</t>
+          <t>Maccabi Shaarayim</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Juventus FC</t>
+          <t>Estrela Vermelha</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PAS Giannina</t>
+          <t>Juventus FC</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>PAS Giannina</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SV Racing Club Aruba</t>
+          <t>Anorthosis Famagusta</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Universidad de Concepcion</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>SV Racing Club Aruba</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SS Cosmos</t>
+          <t>Universidad de Concepcion</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Vilafranquense</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>SS Cosmos</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Vilafranquense</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CD Provincial Ranco</t>
+          <t>Nice</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>Sunderland</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>CD Provincial Ranco</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Glentoran FC</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Ayr United</t>
+          <t>US Cremonese</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SKN St. Polten</t>
+          <t>Glentoran FC</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Ayr United</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>SKN St. Polten</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Frosinone</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Hamburger SV III</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Petrolul Ploiesti</t>
+          <t>Hamburger SV III</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Twente</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Petrolul Ploiesti</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Willem II</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>NAC Breda</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jong PSV Eindhoven </t>
+          <t>Den Haag</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MSV 1919 Neuruppin</t>
+          <t xml:space="preserve">Jong PSV Eindhoven </t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BW Lohne</t>
+          <t>MSV 1919 Neuruppin</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SV Viktoria Aschaffenburg</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>FC Stade LS Ouchy</t>
+          <t>BW Lohne</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Le Puy Foot</t>
+          <t>SV Viktoria Aschaffenburg</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>FC Stade LS Ouchy</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Le Puy Foot</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Martigues</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Avranches</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Red Star Paris</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FC Monheim</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Uhlenhorster SC Paloma</t>
+          <t>Red Star Paris</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>TuS Osdorf</t>
+          <t>FC Monheim</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>FC Kray</t>
+          <t>Uhlenhorster SC Paloma</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Ortmann</t>
+          <t>TuS Osdorf</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SV Langenrohr</t>
+          <t>FC Kray</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SV Lichtenberg 47</t>
+          <t>Ortmann</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Berliner AK 07</t>
+          <t>SV Langenrohr</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SpVgg Ansbach</t>
+          <t>SV Lichtenberg 47</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Bourges 18</t>
+          <t>Berliner AK 07</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>FC Erzgebirge Aue</t>
+          <t>SpVgg Ansbach</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Bourges 18</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>FSV Optik Rathenow</t>
+          <t>FC Erzgebirge Aue</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>FC Türkiye Wilhelmsburg</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>TSV Grossbardorf</t>
+          <t>FSV Optik Rathenow</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SpVgg SV Weiden</t>
+          <t>FC Türkiye Wilhelmsburg</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1. SC Feucht</t>
+          <t>TSV Grossbardorf</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>FC Holzhausen</t>
+          <t>SpVgg SV Weiden</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ASKÖ Oedt</t>
+          <t>1. SC Feucht</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>KAC 1909</t>
+          <t>FC Holzhausen</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Hannover 96</t>
+          <t>ASKÖ Oedt</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. FC Kaiserslautern </t>
+          <t>KAC 1909</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SV Wallern</t>
+          <t>Hannover 96</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Steyr</t>
+          <t xml:space="preserve">1. FC Kaiserslautern </t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>FC Admira Wacker Modling</t>
+          <t>SV Wallern</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SV Horn</t>
+          <t>Steyr</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Sturm Graz Amateure</t>
+          <t>FC Admira Wacker Modling</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>SV Horn</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Sturm Graz Amateure</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Jura Sud Foot</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Épinal</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Jura Sud Foot</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Chojniczanka Chojnice</t>
+          <t>Épinal</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Stammersdorf</t>
+          <t>Chojniczanka Chojnice</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>MFK Skalica</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>FC Akhmat Grozny</t>
+          <t>Stammersdorf</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>FC Vysocina Jihlava</t>
+          <t>MFK Skalica</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucuresti</t>
+          <t>FC Akhmat Grozny</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Awassa Kenema</t>
+          <t>FC Vysocina Jihlava</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Korofina</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Rayon Sport</t>
+          <t>Awassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Al Qadsia</t>
+          <t>Korofina</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Rayon Sport</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>MFK Chrudim</t>
+          <t>Al Qadsia</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Kotuku Royals</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Great Olympics</t>
+          <t>MFK Chrudim</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SC Poltava</t>
+          <t>Kotuku Royals</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>FK Sutjeska</t>
+          <t>Great Olympics</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Al-Najma Manama</t>
+          <t>SC Poltava</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Al Riffa</t>
+          <t>FK Sutjeska</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Al Nejmeh</t>
+          <t>Al-Najma Manama</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Pelikan Lowicz</t>
+          <t>Al Riffa</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Foncha Street Bamenda</t>
+          <t>Al Nejmeh</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>CA Batna</t>
+          <t>Pelikan Lowicz</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Aïn M'lila</t>
+          <t>Foncha Street Bamenda</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>US Chaouia</t>
+          <t>CA Batna</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>CR Temouchent</t>
+          <t>Aïn M'lila</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Athlitiki Enosi Larissa F.C.</t>
+          <t>US Chaouia</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Maccabi Ahi Nazareth FC</t>
+          <t>CR Temouchent</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Athlitiki Enosi Larissa F.C.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Hapoel Ramat Gan</t>
+          <t>Maccabi Ahi Nazareth FC</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>KMC FC</t>
+          <t>Hapoel Ramat Gan</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Hapoel Irony Nir Ramat Hasharon</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Veria</t>
+          <t>KMC FC</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Croatia Zmijavci</t>
+          <t>Hapoel Irony Nir Ramat Hasharon</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>EEPCO</t>
+          <t>Veria</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Croatia Zmijavci</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>EEPCO</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>NK Hrvace</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>Vipers</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>FC Etar Veliko Tarnovo</t>
+          <t>NK Hrvace</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>PFC Belasitsa Petrich</t>
+          <t>Zrinski Jurjevac</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>FC Etar Veliko Tarnovo</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>FK Minior Pernik</t>
+          <t>PFC Belasitsa Petrich</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Vedita Colonesti</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>CS Afumati</t>
+          <t>FK Minior Pernik</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Tunari</t>
+          <t>Vedita Colonesti</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Sanatatea Cluj</t>
+          <t>CS Afumati</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Popesti-Leordeni</t>
+          <t>Tunari</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>CSO Retezatul Hateg</t>
+          <t>Sanatatea Cluj</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>CFR Cluj II</t>
+          <t>Popesti-Leordeni</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Ineu</t>
+          <t>CSO Retezatul Hateg</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CSC Ghiroda si Giarmata VII</t>
+          <t>CFR Cluj II</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>FC Karpaty Lviv</t>
+          <t>Ineu</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Blejoi</t>
+          <t>CSC Ghiroda si Giarmata VII</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>KKS 1925 Kalisz</t>
+          <t>FC Karpaty Lviv</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MSK Zilina II</t>
+          <t>Blejoi</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MKS Pogon Szczecin II</t>
+          <t>KKS 1925 Kalisz</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Hapoel Bueine</t>
+          <t>MSK Zilina II</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Odra Wodzislaw Slaski</t>
+          <t>MKS Pogon Szczecin II</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Podlasie Biala Podlaska</t>
+          <t>Hapoel Bueine</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Odra Wodzislaw Slaski</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Real Bradu</t>
+          <t>Podlasie Biala Podlaska</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MS Tira</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Hougang United FC</t>
+          <t>Real Bradu</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>MS Tira</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Beitar Tel Aviv Bat Yam</t>
+          <t>Hougang United FC</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Ironi Nesher</t>
+          <t>Balestier Khalsa</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>MS Tzeirey Kfar Kana</t>
+          <t>Ironi Nesher</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Raj Pracha Nonthaburi</t>
+          <t>MS Tzeirey Kfar Kana</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Skoruk Tomakovka</t>
+          <t>Raj Pracha Nonthaburi</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Unia Janikowo</t>
+          <t>Skoruk Tomakovka</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Sokol Ostroda</t>
+          <t>Unia Janikowo</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Beitar Haifa Yaacov</t>
+          <t>Sokol Ostroda</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Tzeirey Tira</t>
+          <t>Beitar Tel Aviv Bat Yam</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>FC Holon Yirmiyahu</t>
+          <t>Beitar Haifa Yaacov</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Northern Gateway SC</t>
+          <t>Tzeirey Tira</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>FC Holon Yirmiyahu</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Hapoel Raanana</t>
+          <t>Northern Gateway SC</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Netivot</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Bnei Eilat</t>
+          <t>Hapoel Raanana</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>FC Gagra</t>
+          <t>Maccabi Ironi Netivot</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>FC Saburtalo Tbilisi</t>
+          <t>Bnei Eilat</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>MS Jerusalem</t>
+          <t>FC Gagra</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SC Hapoel Segev Shalom</t>
+          <t>FC Saburtalo Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Maccabi Ironi Sderot</t>
+          <t>MS Jerusalem</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>MS Tzeirey Taibe</t>
+          <t>SC Hapoel Segev Shalom</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Hapoel Migdal Haemek</t>
+          <t>Maccabi Ironi Sderot</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Beitar Ironi Kiryat Gat</t>
+          <t>MS Tzeirey Taibe</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Shimshon Kfar Qasem</t>
+          <t>Hapoel Migdal Haemek</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Hapoel Bnei Arrara Ara</t>
+          <t>Beitar Ironi Kiryat Gat</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>FC Takin</t>
+          <t>Shimshon Kfar Qasem</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Zibo Cuju FC</t>
+          <t>Hapoel Bnei Arrara Ara</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
+        <is>
+          <t>FC Takin</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Zibo Cuju FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
         <is>
           <t>Sichuan FC</t>
         </is>

--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A165"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,1148 +443,518 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Guadalupe FC</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B SAD</t>
+          <t>UNAN Managua</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Millonarios FC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>CD Cobreloa Calama</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Managua</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swords Celtic</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Larne FC</t>
+          <t>UD Ibiza-Eivissa</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ballymena United FC</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kilbarrack United</t>
+          <t>Kings Langley</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Ayr United</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AC Bellinzona</t>
+          <t>ArzignanoChiampo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Eimsbütteler TV</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SV Alemannia Waldalgesheim</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mulheim-Karlich</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax FC</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rot Weiss Oberhausen</t>
+          <t>Altinordu</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SC Victoria Hamburg</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wandsbeker TSV Concordia</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SV Ahlerstedt/Ottendorf</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FC Oberneuland</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Harksheide</t>
+          <t>Kifisia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TuS Mechtersheim</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Etsv Weiche Flensburg</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lyon Duchère</t>
+          <t>Marines</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Al Nasar SC</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Skive IK</t>
+          <t>Defence Force FC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sonnenhof Großaspach</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SV Rot-Weiss Hadamar</t>
+          <t>Al Jahra</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FC Süderelbe</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SSV Reutlingen</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1. SC Feucht</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ASV Cham</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ATSV Erlangen</t>
+          <t>Lernayin Artsakh fc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DJK Don Bosco Bamberg</t>
+          <t>Jiangxi Beidamen</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Shanghai Jiading City Development</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FK Macva Sabac</t>
+          <t>Xinjiang Tianshan Leopard FC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MKS Pogon Szczecin II</t>
+          <t>Independiente Santa Fe</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema</t>
+          <t>Real Estelí</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Barém</t>
+          <t>Atletico Junior</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1. FC Slovacko</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Indigenas de Matagalpa</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Podlasie Biala Podlaska</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t xml:space="preserve">FC Andorra </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach</t>
+          <t>Redditch Utd</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Pollok</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ethiopia Bunna</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Viitorul Selimbar</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fayoum FC</t>
+          <t>Nea Salamis Famagusta</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tamiya youth center</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Shoban Moslemen Qena</t>
+          <t>Manisa FK</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mostaqbal Watan Club</t>
+          <t>Suíça</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eastern Company SC</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Zira FK</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Telecom Egypt</t>
+          <t>Crema 1908</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>El Obour SC</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Gana</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Al Nasr Taaden</t>
+          <t>AS Kigali (RWA)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>El Dabaa</t>
+          <t>Al Tadamon</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NK Kustosija</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aerostar Bacau</t>
+          <t>Express FC</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gloria 2018 Bistrita Nasaud</t>
+          <t>Al Sahel</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Albirex Niigata Singapore FC</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FC Zorya Luhansk</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Samut Sakhon</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>FC Van</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>F.C. Pars Jonoubi Jam</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Fajr Sepasi</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mes Shahr-e Babak</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Shahrdari Astara</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Saipa Karaj FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Kheybar Khorramabad</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Cracovia Krakow</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Dalian Professional</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Nanjing City</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Puntarenas FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Boavista</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Albacete Balompié</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>De Graafschap</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Derby County</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Home Farm</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Dungannon Swifts</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Linfield FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Ayrfield United F.C</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Gornik Zabrze</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>FC Thun</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>TSV Buchholz 08</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>FC Karbach</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>TuS Kirchberg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>FC Wil 1900</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1. FC Bocholt</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Niendorfer TSV</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Hamburger SV III</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Heeslinger SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Blumenthaler SV</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Hamm United</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>1. FC Kaiserslautern</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Hamburg II</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Annecy FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Feirense</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Esbjerg fB</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>FC Nöttingen</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Dietkirchen</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>TSV Sasel</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>FSV 08 Bissingen</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>1. FC Geesdorf</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>DJK Gebenbach</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>FC Eintracht Bamberg</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Würzburger FV</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SC Telstar</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>FK Indija</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Vineta Wolin</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Ethio Electric SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>FK Mlada Boleslav</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>MUKS 1811 Unia Tarnów</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Panachaiki 2005 FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>FC Schalke 04 II</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Bugesera FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Etincelles</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Bahir Dar City</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>UPDF FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Gaddafi FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>El Minya FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Misr El Maqasah</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Al Madina Al Monawara SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>El-Entag El-Harby</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Tersana SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>El Alameen</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Al Nasr Cairo</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Wadi Degla</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>El Qanah</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Porto Suez</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Asmant Asyut</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Tanta SC</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>NK Solin</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>FC Dinamo Bacau</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Sighetu Marmatiei</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Balestier Khalsa</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Wisla Cracóvia</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>FC Oleksandriya</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Nonthaburi United</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Chadormalu</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Darya Babol</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Shahrdari Hamedan</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Khalij Fars Mahshahr</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Chooka Talesh</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Esteghlal Molasani</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Arman Gohar Sirjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Khosheh Talaei</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>FK Zeleziarne Podbrezova</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Panamá</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Zhejiang Professional</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Wuhan FC</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Shanghai Port</t>
+          <t>Qingdao Manatee FC</t>
         </is>
       </c>
     </row>

--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,518 +443,3745 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Mafra</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UNAN Managua</t>
+          <t>SD Ponferradina</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Millonarios FC</t>
+          <t>AC Omonia Nicosia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CD Cobreloa Calama</t>
+          <t>FCSB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Levante</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>Eibar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UD Ibiza-Eivissa</t>
+          <t>FC Arges Pitesti</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hitchin Town</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kings Langley</t>
+          <t>Benevento</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ayr United</t>
+          <t>Acadêmia de Coimbra</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ArzignanoChiampo</t>
+          <t>Arouca</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Altay SK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Racing Santander</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>AD Sanjoanense</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>SV Drochtersen/Assel</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>AS Bari</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Genoa CFC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Cosenza</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Brescia Calcio</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>Ascoli Calcio 1898</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>FC Sudtirol</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Newry City AFC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Cluj</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Adanaspor</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>1. FC Lokomotive Leipzig</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Defence Force FC</t>
+          <t>VfV Borussia 06 Hildesheim</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>1. FC Phönix Lübeck</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t xml:space="preserve">FC Andorra </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>Holstein Kiel II</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Eintracht Norderstedt</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Bremer SV</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lernayin Artsakh fc</t>
+          <t>Germania Halberstadt</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jiangxi Beidamen</t>
+          <t>Greifswalder FC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Shanghai Jiading City Development</t>
+          <t>SPAL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan Leopard FC</t>
+          <t>Moncarapachense</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe</t>
+          <t>Manisa FK</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Real Estelí</t>
+          <t>CD Trofense</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Atletico Junior</t>
+          <t>Villarreal CF II</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Mirandes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Indigenas de Matagalpa</t>
+          <t>Sporting Gijón II</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Andorra </t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Redditch Utd</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Cagliari</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pollok</t>
+          <t>Casa Pia AC</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Viitorul Selimbar</t>
+          <t>Bonnyrigg Rose</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nea Salamis Famagusta</t>
+          <t>East Fife</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Elgin City</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Forfar Athletic</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Arbroath FC</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>Ayr United</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>Stranraer</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>Inverness CT</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Dunfermline Athletic</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AS Kigali (RWA)</t>
+          <t>Clyde</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>Queens Park</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>Montrose</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>Falkirk</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Kelty Hearts</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Crawley Town</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Gillingham FC</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>Northampton Town</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Rochdale AFC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Coleraine</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Ballymena United FC</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Qingdao Manatee FC</t>
+          <t>Crusaders FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Linfield FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CDC Montalegre</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FC Felgueiras 1932</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Vitória Setúbal</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>GD Fontinhas</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FC Voluntari</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Forest Green Rovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Carlisle United</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SpVgg Unterhaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>FV Illertissen</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TSV Buchbach</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SV Babelsberg 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SV Viktoria Aschaffenburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SV Türkgücü München</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Caldas SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pipinsried</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Wuppertaler SV</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf Am.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1. FC Kaan-Marienborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SC Preussen Munster</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1. FC Düren</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Rodinghausen</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Oberhausen</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MK Dons</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Derby County</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BFC Dynamo</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hannover 96 II</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hamburgo II</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hertha Berlin II</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Sao Joao Ver</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Unirea Dej</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Politehnica Timisoara</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Unirea Constanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ACS Viitorul Pandurii Targu Jiu</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>FC Otelul Galati</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Progresul Spartac</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CS Comunal 1559 Selimbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SC União Torreense</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Morecambe FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>FC Glenavon</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Stevenage Borough</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Crewe Alexandra</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Camarões</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sérvia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Kickers Emden</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>AS Nancy Lorraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Versailles 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Orleans US</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Le Mans UC 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>USL Dunkerque</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>LB Chateauroux</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>FC Bastia Borgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fortuna Koln</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Tennis Borussia Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BFC Viktoria Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Eyüpspor</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Petrolul Ploiesti</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Doxa Katokopias</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Enosis Neon Paralimni</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Coréia do Sul</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Gana</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>FC Schalke 04 II</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Al Mokawloon Arab</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Chornomorets Odessa</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>CS Concordia Chiajna</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Vitoria Guimarães</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Japão</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Trento Calcio 1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Union Arzignanochiampo</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>El Zamalek</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Olimpija Ljubljana</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Canadá</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Croácia</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>CSA Steaua Bucuresti</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Chengdu Rongcheng</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>FC Zorya Luhansk</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Atletico Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>America de Cali</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Independiente Santa Fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Sporting CP II</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Viterbese Castrense</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SS Turris Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>US Avellino</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Rossoblu Potenza</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Virtus Francavilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Radcliffe FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sangiuliano City Nova</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Polônia</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Arábia Saudita</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Everton U21</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BW Lohne</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>AFC Hermannstadt</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Taranto Sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Virtus Verona</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Pergolettese</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>El Ittehad El Sakandary</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Feralpisalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Piacenza</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mantova FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>US Latina Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>FC Koper</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Tunísia</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Austrália</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>US Foggia</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Pordenone</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Picerno</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>FC St. Pauli II</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Kalcer Radomlje</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Dínamo Kiev</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Shanghai Port</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Zhejiang Lucheng</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hebei FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Tianjin Jinmen Tiger</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Shandong Taishan</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Beijing Sport University FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Jiangxi Beidamen</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Deportes Quindio</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>CD Santa Clara</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ACN Siena 1904</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>San Donato Tavarnelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Rimini Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>AS Lucchese Libertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Chindia Târgoviste</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>NK Maribor</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Asd Torres Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Dire Dawa Kenema</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Bahla Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Al Suwaiq</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sumqayit FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>US Alessandria Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>BKMA Yerevan</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>FC Noah</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Hitchin Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Kings Langley</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>FK Csikszereda Miercurea Ciuc</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Olympiakos Nicosia</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Aris Limassol</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Altinordu</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Ethiopian Medhin</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qarabağ FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>AS Giana Erminio</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Kifisia</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>OF Ierapetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Al Nasar SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Defence Force FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Wakiso Giants</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Al Jahra</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Kryvbas Kryvyi Rih</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>FC Oleksandriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Kagera Sugar</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Johor Darul Ta'zim</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>FC Lokomotiv 1929 Sofia</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Shamakhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Lernayin Artsakh fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading City Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Shaanxi Changan</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Xinjiang Tianshan</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Karmiotissa Pano Polemidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>CS Mioveni</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Rapid Bucuresti</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>AEL Limassol</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>US Palermo</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Real SC Queluz</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Leixões</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Werder Bremen II</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>AC Perugia Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Reggina 1914</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Como 1907</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Portadown FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Goztepe SK</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Chemnitzer FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>FC Teutonia Ottensen</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Atlas Delmenhorst</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>SSV Jeddeloh</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Etsv Weiche Flensburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>BSG Chemie Leipzig</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>FSV 63 Luckenwalde</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>União de Leiria</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>FC Paços Ferreira</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>CD Leganés</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>FC U Craiova 1948</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>APOEL Nicosia</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>SC Braga</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Erzurum Buyuksehir Belediyesi Spor</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Dumbarton</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Annan Athletic</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Stenhousemuir</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Albion Rovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Greenock Morton</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Raith Rovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Stirling Albion</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Partick Thistle</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Dundee FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Queen of the South</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>FC Edinburgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Hamilton Academical</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Alloa Athletic</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Airdrieonians</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Swindon Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Salford City</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Tranmere</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Harrogate Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Colchester United</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Dungannon Swifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Cliftonville FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Glentoran FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Carrick Rangers</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Fafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Vitoria Guimarães II</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Amora FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Denizlispor</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Cambridge United</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Sutton United</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Wacker Burghausen</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>TSV 1896 Rain am Lech</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Augsburg II</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>FC Carl Zeiss Jena</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Bayern München II</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>TSV Aubstadt</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1. FC Nürnberg II</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>SG Wattenscheid 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>FC Bocholt</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>SV 19 Straelen</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>SC Wiedenbrück 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>TSV Alemannia Aachen</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>SV Lippstadt 08</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Borussia Monchengladbach</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Millwall FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Sheffield Wednesday</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Grimsby Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Lincoln City FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>VSG Altglienicke</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>BSV Rehden</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>TSV Havelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Berliner AK 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>SC Braga II</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Gençlerbirligi</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>CS Minaur Baia Mare</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Politehnica Iasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>FC Ripensia Timisoara</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>FC Metaloglobus Bucuresti</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>CSM Slatina</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>CSC Dumbravita</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>FC Famalicão</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Barnsley FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Fleetwood Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Cheltenham Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Larne FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Walsall</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Barrow FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Suíça</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>VfB Lübeck</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>União SC Paredes</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Sedan-Ardennes</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>FC Bourg Peronnas</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>FC Martigues</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Red Star Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Rot Weiss Ahlen</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>SV Lichtenberg 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>ZFC Meuselwitz</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Akritas Chloraka</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>AEK Larnaca</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Uruguai</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ACS Sepsi</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>1. FC Köln II</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Ceramika Cleopatra</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Smouha</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>FC Unirea 2004 Slobozia</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>B SAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Espanha</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Alemanha</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>LR Vicenza</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Pro Vercelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Al-Masry</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>NK Celje</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Marrocos</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>PFC Levski Sofia</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Buzau</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Kolos Kovalivka</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Rionegro Aguilas</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Millonarios FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Gelbison Vallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>SSD Fidelis Andria 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Juve Stabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Audace Cerignola</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Pescara Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>South Shields</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Biancoscudati Padova</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>FC Crotone</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Pro Sesto</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Novara</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahallah</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Juventus FC Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Triestina</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>US Albinoleffe</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>AC Renate</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Monopoli</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>NS Mura</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Giugliano</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>França</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>ACR Messina</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Aurora Pro Patria</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Nuova Monterosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>NK Domzale</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Metalist 1925 Kharkiv</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Wuhan FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Dalian Professional</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Guangzhou R&amp;F</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Cangzhou Mighty Lions</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Kunshan FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Atletico Huila</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>UD Oliveirense</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>AC Reggiana 1919</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Montevarchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Imolese Calcio</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Gubbio 1910</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>SV Heimstetten</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>AŠK Bravo</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Virtus Entella</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Fiorenzuola</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>US Ancona 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Catar</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Tabor Sežana</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Wolkite City</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Al Ittihad Salalah</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Mussanah Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>FK Qabala</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>US Olbia 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>FC Shirak</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Alashkert FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Redditch United</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Nuneaton Borough FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Pollok FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Hawassa Kenema</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Zira FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Crema 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Kallithea</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Proodeftiki</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Al Tadamon</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Ethio Electric SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Express FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Al Sahel</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>SC Dnipro-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Mtibwa Sugar</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Yokohama F.Marinos</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>FC Vitosha Bistritsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>FK Kapaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>FC Van</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
     </row>

--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:A123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,943 +478,817 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FC Inter Nouakchott</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UE Santa Coloma II</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>Altinordu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Kifisia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CD Lunda Sul</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Recreativo Do Libolo</t>
+          <t>Marines</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>Al Nasar SC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Defence Force FC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>Al Jahra</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KMC</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>Kagera Sugar</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Defence Force FC</t>
+          <t>Johor Darul Ta'zim</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Roma</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kagera Sugar</t>
+          <t>Lernayin Artsakh fc</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Johor Darul Ta'zim</t>
+          <t>Shanghai Jiading City Development</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FC Lokomotiv 1929 Sofia</t>
+          <t>Deportes Quindio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>CD Santa Clara</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lernayin Artsakh fc</t>
+          <t>Recanatese</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Shanghai Jiading City Development</t>
+          <t>ACN Siena 1904</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>San Donato Tavarnelle</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan</t>
+          <t>Rimini Calcio</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Deportes Quindio</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CD Santa Clara</t>
+          <t>AS Lucchese Libertas</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ACN Siena 1904</t>
+          <t>Wales</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>San Donato Tavarnelle</t>
+          <t>SV Türkgücü München</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rimini Calcio</t>
+          <t>Chindia Târgoviste</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>NK Maribor</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AS Lucchese Libertas</t>
+          <t>Pontedera</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Asd Torres Calcio</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Carrarese</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SV Türkgücü München</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chindia Târgoviste</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>ND Gorica</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Dire Dawa Kenema</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Asd Torres Calcio</t>
+          <t>Bahla Club</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Al Suwaiq</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Al Seeb</t>
+          <t>Sumqayit FK</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>US Alessandria Calcio</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Petro Luanda</t>
+          <t>FC Noah</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ihefu</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t xml:space="preserve">FC Andorra </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bahla Club</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Al Suwaiq</t>
+          <t>Pollok FC</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sumqayit FK</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>US Alessandria Calcio</t>
+          <t>Uruguai</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Andorra </t>
+          <t>Manisa FK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Redditch United</t>
+          <t>Suíça</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pollok FC</t>
+          <t>Zira FK</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AS Douanes</t>
+          <t>Crema 1908</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>UE Engordany II</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Gana</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>AS Kigali</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>Al Tadamon</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Express FC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chemal FC</t>
+          <t>Al Sahel</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>Mtibwa Sugar</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FC Bravos do Maquis</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wiliete SC</t>
+          <t>Yokohama F.Marinos</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>FC Vitosha Bistritsa</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>FC Van</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tanzania Prisons</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>AC Reggiana 1919</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Fermana</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Montevarchi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mtibwa Sugar</t>
+          <t>Imolese Calcio</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Gubbio 1910</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Yokohama F.Marinos</t>
+          <t>Cesena</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FC Vitosha Bistritsa</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>SV Heimstetten</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>AŠK Bravo</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Virtus Entella</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Qingdao Manatee</t>
+          <t>Fiorenzuola</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>US Ancona 1905</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AC Reggiana 1919</t>
+          <t>Catar</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Tabor Sežana</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Montevarchi</t>
+          <t>Wolkite City</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Imolese Calcio</t>
+          <t>Al Ittihad Salalah</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Gubbio 1910</t>
+          <t>Mussanah Club</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>FK Qabala</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>US Olbia 1905</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>FC Shirak</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
-        <is>
-          <t>SV Heimstetten</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Universitatea Craiova</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>AŠK Bravo</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Virtus Entella</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Fiorenzuola</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>US Ancona 1905</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Al Nahda Al-Buraimi</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Catar</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>CD Primeiro de Agosto</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Young Africans</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Tabor Sežana</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Wolkite City</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Al Ittihad Salalah</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mussanah Club</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>FK Qabala</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>US Olbia 1905</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>FC Shirak</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
         <is>
           <t>Alashkert FC</t>
         </is>

--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,817 +478,943 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>FC Inter Nouakchott</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>UE Santa Coloma II</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Altinordu</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Concorde</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>CD Lunda Sul</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Recreativo Do Libolo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Defence Force FC</t>
+          <t>Kifisia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>KMC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Marines</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kagera Sugar</t>
+          <t>Al Nasar SC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Johor Darul Ta'zim</t>
+          <t>Defence Force FC</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Al Jahra</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FC Lokomotiv 1929 Sofia</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lernayin Artsakh fc</t>
+          <t>Kagera Sugar</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Shanghai Jiading City Development</t>
+          <t>Johor Darul Ta'zim</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>Roma</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan</t>
+          <t>Camarões</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Deportes Quindio</t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CD Santa Clara</t>
+          <t>Shamakhi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Lernayin Artsakh fc</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ACN Siena 1904</t>
+          <t>Shanghai Jiading City Development</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>San Donato Tavarnelle</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Rimini Calcio</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Deportes Quindio</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AS Lucchese Libertas</t>
+          <t>CD Santa Clara</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Recanatese</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>ACN Siena 1904</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SV Türkgücü München</t>
+          <t>San Donato Tavarnelle</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chindia Târgoviste</t>
+          <t>Rimini Calcio</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>AS Lucchese Libertas</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Asd Torres Calcio</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Wales</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>SV Türkgücü München</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Chindia Târgoviste</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>NK Maribor</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema</t>
+          <t>Pontedera</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bahla Club</t>
+          <t>Asd Torres Calcio</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Al Suwaiq</t>
+          <t>Carrarese</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sumqayit FK</t>
+          <t>Al Seeb</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>US Alessandria Calcio</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Petro Luanda</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Ihefu</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Andorra </t>
+          <t>ND Gorica</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Redditch United</t>
+          <t>Dire Dawa Kenema</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Bahla Club</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pollok FC</t>
+          <t>Al Suwaiq</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>Sumqayit FK</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>US Alessandria Calcio</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>FC Noah</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t xml:space="preserve">FC Andorra </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>Pollok FC</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>AS Douanes</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>UE Engordany II</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Uruguai</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>Manisa FK</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Chemal FC</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Suíça</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mtibwa Sugar</t>
+          <t>Zira FK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>FC Bravos do Maquis</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Yokohama F.Marinos</t>
+          <t>Wiliete SC</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Crema 1908</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FC Vitosha Bistritsa</t>
+          <t>Kallithea</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Gana</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Tanzania Prisons</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>AS Kigali</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Qingdao Manatee</t>
+          <t>Al Tadamon</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>Express FC</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AC Reggiana 1919</t>
+          <t>Al Sahel</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Montevarchi</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Imolese Calcio</t>
+          <t>Mtibwa Sugar</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Gubbio 1910</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Yokohama F.Marinos</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Sérvia</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>FC Vitosha Bistritsa</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SV Heimstetten</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FC Van</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AŠK Bravo</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Virtus Entella</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Fiorenzuola</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>US Ancona 1905</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Catar</t>
+          <t>AC Reggiana 1919</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Tabor Sežana</t>
+          <t>Fermana</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wolkite City</t>
+          <t>Montevarchi</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Al Ittihad Salalah</t>
+          <t>Imolese Calcio</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mussanah Club</t>
+          <t>Gubbio 1910</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Cesena</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>US Olbia 1905</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FC Shirak</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
+        <is>
+          <t>SV Heimstetten</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Universitatea Craiova</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>AŠK Bravo</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Virtus Entella</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Fiorenzuola</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>US Ancona 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Al Nahda Al-Buraimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Catar</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CD Primeiro de Agosto</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Young Africans</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tabor Sežana</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Wolkite City</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Al Ittihad Salalah</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Mussanah Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>FK Qabala</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>US Olbia 1905</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>FC Shirak</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>Alashkert FC</t>
         </is>

--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:A123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,917 +506,791 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Deportes Quindio</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>CD Santa Clara</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Recanatese</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>ACN Siena 1904</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>San Donato Tavarnelle</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Rimini Calcio</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>AS Lucchese Libertas</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CD Lunda Sul</t>
+          <t>Rangers FC II</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Recreativo Do Libolo</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>Wales</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>SV Steinbach</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>SV Türkgücü München</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>Besiktas Wien</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KMC</t>
+          <t>BSG Chemie Leipzig</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Chindia Târgoviste</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>NK Maribor</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Defence Force FC</t>
+          <t>Pontedera</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Asd Torres Calcio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>Carrarese</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>Sidama Bunna</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Besiktas</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kagera Sugar</t>
+          <t>Al Naft</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Johor Darul Ta'zim</t>
+          <t>Al Seeb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FC Lokomotiv 1929 Sofia</t>
+          <t>Petro Luanda</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Morupule Wanderers</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lernayin Artsakh fc</t>
+          <t>Ihefu</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Shanghai Jiading City Development</t>
+          <t>ND Gorica</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>Dire Dawa Kenema</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan</t>
+          <t>Blacks Power FC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Deportes Quindio</t>
+          <t>Kampala City</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CD Santa Clara</t>
+          <t>Bright Stars</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Maroons FC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ACN Siena 1904</t>
+          <t>Vipers</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>San Donato Tavarnelle</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rimini Calcio</t>
+          <t>Bahla Club</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Al Suwaiq</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AS Lucchese Libertas</t>
+          <t>Sumqayit FK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>US Alessandria Calcio</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SV Türkgücü München</t>
+          <t>Fortuna Dusseldorf</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chindia Târgoviste</t>
+          <t>Al Karkh</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Pfk Turan Tovuz</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>FC Noah</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Asd Torres Calcio</t>
+          <t>HB Koge</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>bff academy a</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Al Seeb</t>
+          <t>Sichuan FC</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Heilongjiang Ice City FC</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Liaoning Shenyang Urban</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Petro Luanda</t>
+          <t>Beijing Institute</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ihefu</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t xml:space="preserve">FC Andorra </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bahla Club</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Al Suwaiq</t>
+          <t>Pollok FC</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sumqayit FK</t>
+          <t>AS Douanes</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>US Alessandria Calcio</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>UE Engordany II</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Uruguai</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Andorra </t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Redditch United</t>
+          <t>AC Reggiana 1919</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Fermana</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pollok FC</t>
+          <t>Montevarchi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AS Douanes</t>
+          <t>Imolese Calcio</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>Gubbio 1910</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>UE Engordany II</t>
+          <t>Cesena</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Broomhill FC</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>FC Bayern Alzenau</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>SV Heimstetten</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chemal FC</t>
+          <t>1. Simmeringer SC</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>BFC Dynamo</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>AŠK Bravo</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FC Bravos do Maquis</t>
+          <t>Virtus Entella</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Wiliete SC</t>
+          <t>Fiorenzuola</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>US Ancona 1905</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>Fasil Kenema</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Naft Al Wasat</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tanzania Prisons</t>
+          <t>Al Nahda Al-Buraimi</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>Catar</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>CD Primeiro de Agosto</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>Security Systems FC</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Young Africans</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Tabor Sežana</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Wolkite City</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mtibwa Sugar</t>
+          <t>UPDF FC</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Gaddafi FC</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Yokohama F.Marinos</t>
+          <t>Bul FC</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>URA SC</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FC Vitosha Bistritsa</t>
+          <t>SC Villa</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>Livingston FC</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Al Ittihad Salalah</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Mussanah Club</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>FK Qabala</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Qingdao Manatee</t>
+          <t>US Olbia 1905</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>FC Shirak</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>De Graafschap</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AC Reggiana 1919</t>
+          <t>Naft Misan</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>FC Sabah</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Montevarchi</t>
+          <t>Alashkert FC</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Imolese Calcio</t>
+          <t>B 93 Kopenhagen</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Gubbio 1910</t>
+          <t>Ugyen Academy</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Zibo Cuju FC</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nanjing City</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Guangxi Baoyun</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SV Heimstetten</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Universitatea Craiova</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>AŠK Bravo</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Virtus Entella</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Fiorenzuola</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>US Ancona 1905</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Al Nahda Al-Buraimi</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Catar</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>CD Primeiro de Agosto</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Young Africans</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Tabor Sežana</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Wolkite City</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Al Ittihad Salalah</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mussanah Club</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>FK Qabala</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>US Olbia 1905</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>FC Shirak</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Alashkert FC</t>
+          <t>Qingdao Youth Island</t>
         </is>
       </c>
     </row>

--- a/dollar.xlsx
+++ b/dollar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,854 +443,2114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LB Chateauroux</t>
+          <t>Ferroviária U20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>Arnett Gardens</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hitchin Town</t>
+          <t>Mirassol U20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kings Langley</t>
+          <t>Catanduva U20</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ayr United</t>
+          <t>Universidad Católica</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FC Inter Nouakchott</t>
+          <t>Rio Preto U20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Union Arzignanochiampo</t>
+          <t>Zumbi EC Sub-20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UE Santa Coloma II</t>
+          <t>La Piedad</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Humble Lions</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deportes Quindio</t>
+          <t>Inter De Minas U20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CD Santa Clara</t>
+          <t>CD Tondela</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>SD Juazeirense U20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ACN Siena 1904</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>San Donato Tavarnelle</t>
+          <t>Huesca</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rimini Calcio</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Bologna FC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AS Lucchese Libertas</t>
+          <t>Redditch United</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rangers FC II</t>
+          <t>US Ancona 1905</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>SKA Brasil U20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SV Steinbach</t>
+          <t>Suécia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SV Türkgücü München</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Besiktas Wien</t>
+          <t>AS Armee</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BSG Chemie Leipzig</t>
+          <t>Tanabi SP U20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chindia Târgoviste</t>
+          <t>Comercial U20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Al Shabab Riyadh</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Guaratingueta U20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Asd Torres Calcio</t>
+          <t>Tupã U20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Uniao Suzano SP U20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sidama Bunna</t>
+          <t>Barretos U20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Al Naft</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Al Seeb</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Petro Luanda</t>
+          <t>Hapoel Kfar Saba</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Morupule Wanderers</t>
+          <t>Aster Brasil FC U20</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ihefu</t>
+          <t>Maccabi Kabilio Jaffa</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dire Dawa Kenema</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Blacks Power FC</t>
+          <t>Pumas Tabasco</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kampala City</t>
+          <t>Correcaminos UAT</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bright Stars</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Maroons FC</t>
+          <t>Lemense U20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>Itabaiana SE Sub-20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Varzim</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bahla Club</t>
+          <t>Capital FC Ricanato TO Sub-20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Al Suwaiq</t>
+          <t>Manchester United</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sumqayit FK</t>
+          <t>Newcastle United</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>US Alessandria Calcio</t>
+          <t>Inter de Milão</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fortuna Dusseldorf</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Al Karkh</t>
+          <t>Valenciennes FC</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pfk Turan Tovuz</t>
+          <t>SM Caen CBN</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Le Havre AC</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HB Koge</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bff academy a</t>
+          <t>Nimes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sichuan FC</t>
+          <t>Pau FC</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City FC</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Liaoning Shenyang Urban</t>
+          <t>Paris FC</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Beijing Institute</t>
+          <t>Rodez Aveyron</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Le Mans UC 72</t>
+          <t>Hamilton Academical</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Andorra </t>
+          <t>Dundee FC</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Redditch United</t>
+          <t>Amiens SC</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nuneaton Borough FC</t>
+          <t>Queen of the South</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pollok FC</t>
+          <t>Bradford City</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AS Douanes</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LR Vicenza</t>
+          <t>Bolton</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>UE Engordany II</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Newry City AFC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>FC Glenavon</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>Cliftonville FC</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AC Reggiana 1919</t>
+          <t>Maringa PR Sub-20</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Matlock Town</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Montevarchi</t>
+          <t>Whitby Town</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Imolese Calcio</t>
+          <t>Hyde United</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Gubbio 1910</t>
+          <t>Royston Town</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Glentoran FC</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Broomhill FC</t>
+          <t>Rangers FC II</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Leiston FC</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Hereford United</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FC Bayern Alzenau</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SV Heimstetten</t>
+          <t>Buxton FC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1. Simmeringer SC</t>
+          <t>Farnborough</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BFC Dynamo</t>
+          <t>Dover Athletic</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Notts County</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AŠK Bravo</t>
+          <t>Aldershot Town</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Virtus Entella</t>
+          <t>Wealdstone FC</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Fiorenzuola</t>
+          <t>Bala Town</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>US Ancona 1905</t>
+          <t>Flint Town United</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Fasil Kenema</t>
+          <t>Winchester City</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t xml:space="preserve">Harland and Wolff Welders FC </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Naft Al Wasat</t>
+          <t>Dollingstown</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Al Nahda Al-Buraimi</t>
+          <t>Wrexham FC</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Lincoln City FC</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Catar</t>
+          <t>NAC Breda</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CD Primeiro de Agosto</t>
+          <t>Kozakken Boys</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Security Systems FC</t>
+          <t>HV  and  CV Quick</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Young Africans</t>
+          <t>Leixões</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Tabor Sežana</t>
+          <t>Vocem SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wolkite City</t>
+          <t>Maua SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UPDF FC</t>
+          <t>Desportivo Brasil SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Gaddafi FC</t>
+          <t>EC Sao Bernardo SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bul FC</t>
+          <t>Sharjah Brasil SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>URA SC</t>
+          <t>Água Santa Sub-20</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SC Villa</t>
+          <t>Twente</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Livingston FC</t>
+          <t>Al Raed</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Al Ittihad Salalah</t>
+          <t>Mamelodi Sundowns</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mussanah Club</t>
+          <t>Charlottenburger FC Hertha 06</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>FSV Union Fürstenwalde</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>US Olbia 1905</t>
+          <t>Ibrachina FC SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FC Shirak</t>
+          <t>Catar</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Juventus-SP Sub-20</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Naft Misan</t>
+          <t>Madureira Sub-20</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Nova Iguaçu Sub-20</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Alashkert FC</t>
+          <t>Camboriu Sub-20</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>B 93 Kopenhagen</t>
+          <t>Operario Ferroviario EC PR Sub-20</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ugyen Academy</t>
+          <t>Retro Sub-20</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Zibo Cuju FC</t>
+          <t>Greater Tomorrow Fc</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Galvez Sub-20</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Guangxi Baoyun</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Qingdao Youth Island</t>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Al Qadisiyah FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Áustria Viena</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>FC Thun</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Emirados Arabes Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MFK Skalica</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Al Ain FC (KSA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Rodos</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Foolad Khuzestan FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Al Shoulla FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Zalaegerszegi</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estrela Amadora U23</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Leixões Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Al-Hurriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Al Kiswa</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Tadamon Latakia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Al Arabi Syria</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>FK Dukla Banska Bystrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Shortet Hamah</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Niroye Zamini</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Kian Sam Babol</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Ario Eslamshahr</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Rahmatganj MFS</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Persatuan Sepak Bola Barito Putera</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Psgc Ciamis</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Tuzos Pachuca</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Corinthians Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Mount Pleasant Academy</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Chapecoense Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Avaí Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Talleres de Córdoba</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Palmeiras-U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Fast U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Correcaminos UAT II</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Cavalier</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CE Uniao ABC U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>América SP U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Bedford Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Finlândia</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Entente Sebkha</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Nautico Capibaribe PE U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Sport Recife-U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Al Ittihad Jeddah</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Goias U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Cuiaba U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Figueirense MG U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Athletico Paranaense U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>US Cremonese</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Karmiotissa Pano Polemidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Akritas Chloraka</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Maccabi Ahi Nazareth FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hapoel Petach Tikva</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Parana Clube PR U20</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hapoel Afula</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hapoel Irony Nir Ramat Hasharon</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Gaziantep FK</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Venados FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>CA Rosario Central</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ABC Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Botafogo-SP Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SL Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hercilio Luz CA Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Annecy FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>FC Sochaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>SC Bastia</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>FC Metz</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Dijon FCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Dunfermline Athletic</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Rochdale AFC</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Salford City</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Coleraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Crusaders FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Linfield FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Bragantino Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Marine FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guiseley AFC</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Warrington Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mickleover Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Ballymena United FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Civil Service Strollers FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Coalville Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Farsley Celtic</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Blyth Spartans</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Chorley</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Slough Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Taunton Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Dagenham &amp; Redbridge</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Chesterfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Connah's Quay Nomads FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Weston Super Mare FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Ballinamallard United</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Lisburn Distillery</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Bromley FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Accrington Stanley</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Den Haag</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>FC Famalicão</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>América-MG Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Vila Nova Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>CRB Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Bahia Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Ceará Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Atlético-MG Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>SC Telstar</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Al Hilal Riyadh</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Chippa United</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Tennis Borussia Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>BFC Viktoria Berlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Santa Cruz FC Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Barém</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Fortaleza Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Rio Claro Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Ge Mauaense Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Ituano Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>CSA Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Ponte Preta Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Samger FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Mixto Esporte Clube Sub-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>SC Farense Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Fortuna Dusseldorf</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Al Ahli Saudi FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>FC Zbrojovka Brno</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>FC Lugano</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>AC Bellinzona</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>FC Banik Ostrava</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Al Faisaly</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Panionios</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Khosheh Talaei</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Al-Riyadh SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>TSV Hartberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Brisbane Roar FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Portimonense Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>CS Marítimo Sub-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Al-Nayrab</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Doma</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Sabikhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>al yaqdhah</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>1. FC Tatran Presov</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Al Nawaeir</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Chadormalu</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Shohada Babolsar</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Shohada Razakan</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Aluminium Arak FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Sheikh Jamal Dhanmondi Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>PSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Depok City</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Puebla</t>
         </is>
       </c>
     </row>
